--- a/input/emissions-inventories/Korea/Korea_CAPSS_Emissions_Translation.xlsx
+++ b/input/emissions-inventories/Korea/Korea_CAPSS_Emissions_Translation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach919/CEDS/CEDS/input/emissions-inventories/Korea/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60022A42-6812-E943-992D-EA4507395039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEFB4E2-3D4C-864A-A253-E17DCA4271D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="1920" windowWidth="23260" windowHeight="12580" xr2:uid="{8B17AF1C-6E15-4850-AD0A-8FF427B3FCF7}"/>
+    <workbookView xWindow="9500" yWindow="1440" windowWidth="26200" windowHeight="15020" xr2:uid="{8B17AF1C-6E15-4850-AD0A-8FF427B3FCF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Translation" sheetId="1" r:id="rId1"/>
@@ -131,19 +131,10 @@
     <t>https://www.istans.or.kr/mainMenu.do</t>
   </si>
   <si>
-    <t>Conbustion in energy production</t>
-  </si>
-  <si>
-    <t>Non Industrial conbustion</t>
-  </si>
-  <si>
     <t>Energy transport and storage</t>
   </si>
   <si>
     <t>Road transportation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non Road transportation </t>
   </si>
   <si>
     <t>Other sources</t>
@@ -208,6 +199,15 @@
   </si>
   <si>
     <t>Biological Combustion</t>
+  </si>
+  <si>
+    <t>Non Industrial combustion</t>
+  </si>
+  <si>
+    <t>Combustion in energy production</t>
+  </si>
+  <si>
+    <t>Non Road transportation</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,21 +361,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -385,11 +376,17 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -758,216 +755,216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1AB901-DA40-409E-8105-DDFEBAEE1E3E}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="202.1640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="86.83203125" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="15" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -986,7 +983,7 @@
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -995,15 +992,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="9:9" ht="144" x14ac:dyDescent="0.2">
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
     </row>
